--- a/biology/Botanique/Sedum_caespitosum/Sedum_caespitosum.xlsx
+++ b/biology/Botanique/Sedum_caespitosum/Sedum_caespitosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orpin rougeâtre, Sédum rougeâtre, Orpin gazonnant
 L'orpin rougeâtre, sédum rougeâtre ou orpin gazonnant (Sedum caespitosum) est une espèce de plante de la famille des Crassulacées. Elle doit son nom à sa coloration fréquemment rougeâtre.
@@ -514,13 +526,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sedum caespitosum est une plante annuelle, basse (de 2 à 5 cm de haut), herbacée, ramifiée, nue. Ses feuilles, longues de 3 à 6 mm, plutôt épaisses et ovoïdes, sont alternes, lâches ou denses, en biais sur la tige, dirigées vers le haut, à pointe peu marquée[1].
-Ses fleurs disposées aux extrémités des rameaux, sont petites, blanc rougeâtre à 4-5 sépales, 4-5 pétales lancéolés, pointus, 4-5 étamines, 4-5 carpelles libres, pointus plus ou moins écartés, devenant des sacs à grains rares[1].
-Sa floraison a lieu d'avril à juin[2].
-Caractéristiques
-Organes reproducteurs
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedum caespitosum est une plante annuelle, basse (de 2 à 5 cm de haut), herbacée, ramifiée, nue. Ses feuilles, longues de 3 à 6 mm, plutôt épaisses et ovoïdes, sont alternes, lâches ou denses, en biais sur la tige, dirigées vers le haut, à pointe peu marquée.
+Ses fleurs disposées aux extrémités des rameaux, sont petites, blanc rougeâtre à 4-5 sépales, 4-5 pétales lancéolés, pointus, 4-5 étamines, 4-5 carpelles libres, pointus plus ou moins écartés, devenant des sacs à grains rares.
+Sa floraison a lieu d'avril à juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sedum_caespitosum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sedum_caespitosum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, rougeâtre
 Période de floraison : avril-juin
 Inflorescence : cyme multipare
@@ -538,31 +587,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Sedum_caespitosum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sedum_caespitosum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon est protégé dans les zones suivantes : Bretagne.
 </t>
